--- a/date/login_page.xlsx
+++ b/date/login_page.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>元素变量名</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>//span[@class='user-name']</t>
+  </si>
+  <si>
+    <t>quit_button</t>
+  </si>
+  <si>
+    <t>退出按钮</t>
+  </si>
+  <si>
+    <t>//a[contains(@href,'/zentao/www/index.php?m=user&amp;f=logout')]</t>
   </si>
 </sst>
 </file>
@@ -273,23 +282,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,13 +1235,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1333,6 +1342,23 @@
       </c>
       <c r="E5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/date/login_page.xlsx
+++ b/date/login_page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22605" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="22605" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>//input[@id="account"]</t>
+    <t>//input[@id="account1"]</t>
   </si>
   <si>
     <t>password_inputbox</t>
@@ -160,21 +160,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -190,44 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -246,9 +193,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,19 +216,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -291,14 +290,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +313,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,13 +373,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,156 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,21 +504,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,17 +548,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -596,6 +570,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -604,6 +593,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1237,7 +1237,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/date/login_page.xlsx
+++ b/date/login_page.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22605" windowHeight="11790"/>
+    <workbookView windowWidth="19350" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="main_page" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="login_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>元素变量名</t>
   </si>
@@ -48,7 +48,7 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>//input[@id="account1"]</t>
+    <t>//input[@id="account"]</t>
   </si>
   <si>
     <t>password_inputbox</t>
@@ -133,6 +133,72 @@
   </si>
   <si>
     <t>//a[contains(@href,'/zentao/www/index.php?m=user&amp;f=logout')]</t>
+  </si>
+  <si>
+    <t>测试方法名称</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
+    <t>所属测试类</t>
+  </si>
+  <si>
+    <t>测试是否执行</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>测试执行失败的提示信息</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>test_login_success</t>
+  </si>
+  <si>
+    <t>验证是否能成功进行登录</t>
+  </si>
+  <si>
+    <t>Login_Test</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>测试人员1</t>
+  </si>
+  <si>
+    <t>test_login_success用例执行失败</t>
+  </si>
+  <si>
+    <t>username=test01</t>
+  </si>
+  <si>
+    <t>password=newdream123</t>
+  </si>
+  <si>
+    <t>test_login_faild</t>
+  </si>
+  <si>
+    <t>验证错误的用户名和正确的密码能否正确登录</t>
+  </si>
+  <si>
+    <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
+  </si>
+  <si>
+    <t>test_login_faild这个用例执行失败</t>
+  </si>
+  <si>
+    <t>username=test001</t>
   </si>
 </sst>
 </file>
@@ -160,6 +226,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -175,6 +256,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -193,9 +312,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +335,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,14 +349,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,67 +364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +379,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,55 +463,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,114 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +570,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,6 +629,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -570,21 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -593,17 +670,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1371,14 +1437,105 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
